--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v3_11_0_Sample_Plate.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v3_11_0_Sample_Plate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Final Volume (uL)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample</t>
+    <t xml:space="preserve">Sample Janus</t>
   </si>
   <si>
     <t xml:space="preserve">Sample1NormPlanning</t>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">384-well plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Biomek</t>
   </si>
 </sst>
 </file>
@@ -3912,7 +3915,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A555" type="list">
-      <formula1>Index!$B$2:$B$3</formula1>
+      <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3969,14 +3972,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
